--- a/biology/Botanique/Abbé_Fétel/Abbé_Fétel.xlsx
+++ b/biology/Botanique/Abbé_Fétel/Abbé_Fétel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Abb%C3%A9_F%C3%A9tel</t>
+          <t>Abbé_Fétel</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’Abbé Fétel est une variété de poire obtenue de semis vers 1866 par l'abbé Fétel alors curé de Chessy-les-Mines.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Abb%C3%A9_F%C3%A9tel</t>
+          <t>Abbé_Fétel</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Abate Fétel (Italie).
 Abate.
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Abb%C3%A9_F%C3%A9tel</t>
+          <t>Abbé_Fétel</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">D’origine française, le semis a été effectué en 1866, à partir de pépins de poires parmi lesquelles figuraient Duchesse d'Angoulême, Beurré d'Hardenpont, Beurré Clairgeau, Alexandrine Douillard... La première fructification a eu lieu à Charentay vers 1870[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D’origine française, le semis a été effectué en 1866, à partir de pépins de poires parmi lesquelles figuraient Duchesse d'Angoulême, Beurré d'Hardenpont, Beurré Clairgeau, Alexandrine Douillard... La première fructification a eu lieu à Charentay vers 1870.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Abb%C3%A9_F%C3%A9tel</t>
+          <t>Abbé_Fétel</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Arbre</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 D’une vigueur faible ou moyenne, l'arbre présente de bonnes affinités avec le cognassier.
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Abb%C3%A9_F%C3%A9tel</t>
+          <t>Abbé_Fétel</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,7 +626,9 @@
           <t>Fruit</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Son calibre est assez gros à gros, de forme très allongée, comme une calebasse, mais irrégulière.
@@ -619,9 +639,9 @@
 La maturité naturelle pour la consommation se situe à mi-octobre.
 Bonne conservation jusqu’en janvier en chambre froide.
 Son emballage est malaisé : le conditionnement de ce fruit est peu commode en raison de sa forme. Son apparence surprend le consommateur.
-Très cultivé en Italie (7 à 8 % de la production nationale) mais aussi au Chili et en Argentine[2].
+Très cultivé en Italie (7 à 8 % de la production nationale) mais aussi au Chili et en Argentine.
 Des traitements permettent de ralentir le mûrissement des fruits.
-Le code PLU du fruit est 3012[3].
+Le code PLU du fruit est 3012.
 </t>
         </is>
       </c>
@@ -632,7 +652,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Abb%C3%A9_F%C3%A9tel</t>
+          <t>Abbé_Fétel</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -650,7 +670,9 @@
           <t>Appréciations générales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Moyennement sensible  à la tavelure sur feuilles et sur fruits, assez sensible au pseudomonas sur feuille et bouton foral.
